--- a/Cours 2 Datamanagement/data1.xlsx
+++ b/Cours 2 Datamanagement/data1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabacher\Documents\GitHub\sciDoCours\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabacher\Desktop\git\sciDoCours\Cours 2 Datamanagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0824E9-7A51-4FA5-88DA-22FD42BDE44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3205D18-6CC8-471E-89D2-A33362A87CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="feuil1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="205">
   <si>
     <t>ID de la réponse</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Age</t>
   </si>
   <si>
-    <t>Date de la première consultation</t>
-  </si>
-  <si>
     <t>Délais de prise en charge (mois)</t>
   </si>
   <si>
@@ -158,9 +155,6 @@
     <t>Féminin</t>
   </si>
   <si>
-    <t>16/06/2021</t>
-  </si>
-  <si>
     <t>Généraliste</t>
   </si>
   <si>
@@ -212,9 +206,6 @@
     <t>Masculin</t>
   </si>
   <si>
-    <t>15/11/2017</t>
-  </si>
-  <si>
     <t>névralgie d'Arnold + cervicalgies</t>
   </si>
   <si>
@@ -227,9 +218,6 @@
     <t>2021-07-19 21:54:21</t>
   </si>
   <si>
-    <t>27/04/2021</t>
-  </si>
-  <si>
     <t>Spécialiste</t>
   </si>
   <si>
@@ -251,9 +239,6 @@
     <t>2021-07-27 18:48:38</t>
   </si>
   <si>
-    <t>02/07/2019</t>
-  </si>
-  <si>
     <t>cérébrale, médullaire, lombaire, sacro-iliaque</t>
   </si>
   <si>
@@ -264,9 +249,6 @@
   </si>
   <si>
     <t>2021-07-27 18:59:02</t>
-  </si>
-  <si>
-    <t>29/11/2017</t>
   </si>
   <si>
     <t>abdomino-pelvienne</t>
@@ -285,9 +267,6 @@
     <t>2021-07-27 20:30:29</t>
   </si>
   <si>
-    <t>16/07/2019</t>
-  </si>
-  <si>
     <t>Douleurs pluriarticulaires</t>
   </si>
   <si>
@@ -297,9 +276,6 @@
     <t>2021-07-27 20:47:12</t>
   </si>
   <si>
-    <t>27/11/2019</t>
-  </si>
-  <si>
     <t>céphalées</t>
   </si>
   <si>
@@ -309,9 +285,6 @@
     <t>2021-07-27 21:14:32</t>
   </si>
   <si>
-    <t>28/09/2020</t>
-  </si>
-  <si>
     <t>lombalgie gauche</t>
   </si>
   <si>
@@ -327,12 +300,6 @@
     <t>2021-07-27 21:33:45</t>
   </si>
   <si>
-    <t>13/01/2020</t>
-  </si>
-  <si>
-    <t>dorso-lombalgies</t>
-  </si>
-  <si>
     <t>dorsale, lombaire</t>
   </si>
   <si>
@@ -342,12 +309,6 @@
     <t>2021-07-31 16:03:31</t>
   </si>
   <si>
-    <t>09/06/2021</t>
-  </si>
-  <si>
-    <t>pubalgies + lombalgies</t>
-  </si>
-  <si>
     <t>hanche gauche</t>
   </si>
   <si>
@@ -357,9 +318,6 @@
     <t>2021-07-31 16:19:07</t>
   </si>
   <si>
-    <t>10/03/2021</t>
-  </si>
-  <si>
     <t>douleurs des membres inférieurs</t>
   </si>
   <si>
@@ -378,24 +336,12 @@
     <t>2021-07-31 16:45:41</t>
   </si>
   <si>
-    <t>23/09/2020</t>
-  </si>
-  <si>
-    <t>lombalgies + douleurs neuropathiques des membres inférieurs</t>
-  </si>
-  <si>
     <t>2021-07-31 17:23:53</t>
   </si>
   <si>
     <t>2021-07-31 17:13:19</t>
   </si>
   <si>
-    <t>17/02/2021</t>
-  </si>
-  <si>
-    <t>Douleur rétro-auriculaire gauche post-opératoire</t>
-  </si>
-  <si>
     <t>parotide gauche</t>
   </si>
   <si>
@@ -405,12 +351,6 @@
     <t>2021-07-31 17:45:01</t>
   </si>
   <si>
-    <t>14/12/2020</t>
-  </si>
-  <si>
-    <t>coccigodynie</t>
-  </si>
-  <si>
     <t>gastro-entérologue</t>
   </si>
   <si>
@@ -420,12 +360,6 @@
     <t>2021-07-31 17:57:38</t>
   </si>
   <si>
-    <t>16/11/2020</t>
-  </si>
-  <si>
-    <t>troubles musculosquelettiques + tendinite bilatérale chronique de la coiffe des rotateurs + épicondylite bilatérale + tendinite calcifiante du moyen fessier</t>
-  </si>
-  <si>
     <t>hanche gauche, épaule droite</t>
   </si>
   <si>
@@ -435,9 +369,6 @@
     <t>2021-07-31 18:18:25</t>
   </si>
   <si>
-    <t>03/09/2019</t>
-  </si>
-  <si>
     <t>fibromyalgie + lombosciatique droite L5-S1</t>
   </si>
   <si>
@@ -447,9 +378,6 @@
     <t>2021-07-31 18:57:13</t>
   </si>
   <si>
-    <t>23/06/2020</t>
-  </si>
-  <si>
     <t>contexte professionnel</t>
   </si>
   <si>
@@ -471,9 +399,6 @@
     <t>2021-07-31 19:15:48</t>
   </si>
   <si>
-    <t>31/05/2021</t>
-  </si>
-  <si>
     <t>polyarthralgies diffuses</t>
   </si>
   <si>
@@ -492,9 +417,6 @@
     <t>2021-07-31 19:40:45</t>
   </si>
   <si>
-    <t>02/06/2021</t>
-  </si>
-  <si>
     <t>surmenage professionnel</t>
   </si>
   <si>
@@ -516,9 +438,6 @@
     <t>2021-08-01 17:39:37</t>
   </si>
   <si>
-    <t>28/03/2018</t>
-  </si>
-  <si>
     <t>lombalgies chroniques</t>
   </si>
   <si>
@@ -537,9 +456,6 @@
     <t>2021-08-01 18:05:05</t>
   </si>
   <si>
-    <t>06/01/2021</t>
-  </si>
-  <si>
     <t>névralgie pudendale</t>
   </si>
   <si>
@@ -567,9 +483,6 @@
     <t>2021-08-01 18:40:46</t>
   </si>
   <si>
-    <t>15/12/2020</t>
-  </si>
-  <si>
     <t>céphalées chroniques</t>
   </si>
   <si>
@@ -582,9 +495,6 @@
     <t>2021-08-01 18:51:14</t>
   </si>
   <si>
-    <t>27/10/2020</t>
-  </si>
-  <si>
     <t>genou droit, cérébrale</t>
   </si>
   <si>
@@ -594,9 +504,6 @@
     <t>2021-08-01 19:21:44</t>
   </si>
   <si>
-    <t>18/12/2019</t>
-  </si>
-  <si>
     <t>Douleur du pied gauche + cervico-lombalgies</t>
   </si>
   <si>
@@ -624,9 +531,6 @@
     <t>2021-08-01 20:22:55</t>
   </si>
   <si>
-    <t>26/04/2021</t>
-  </si>
-  <si>
     <t>cervicalgies chroniques + tendinopathie calcifiante de l'épaule gauche</t>
   </si>
   <si>
@@ -639,9 +543,6 @@
     <t>2021-08-02 19:07:36</t>
   </si>
   <si>
-    <t>24/09/2018</t>
-  </si>
-  <si>
     <t>douleurs de la face + suspicion de fibromyalgie</t>
   </si>
   <si>
@@ -657,18 +558,12 @@
     <t>2021-08-02 19:45:51</t>
   </si>
   <si>
-    <t>19/04/2017</t>
-  </si>
-  <si>
     <t>2021-08-02 21:26:34</t>
   </si>
   <si>
     <t>2021-08-02 21:15:23</t>
   </si>
   <si>
-    <t>29/07/2020</t>
-  </si>
-  <si>
     <t>douleur chronique du genou droit</t>
   </si>
   <si>
@@ -678,9 +573,6 @@
     <t>2021-08-02 21:32:02</t>
   </si>
   <si>
-    <t>04/01/2017</t>
-  </si>
-  <si>
     <t>cérébrale, dorsale, lombaire, sacro-iliaque</t>
   </si>
   <si>
@@ -690,9 +582,6 @@
     <t>2021-08-02 21:48:34</t>
   </si>
   <si>
-    <t>14/06/2017</t>
-  </si>
-  <si>
     <t>lombaire, genou droit,</t>
   </si>
   <si>
@@ -700,9 +589,6 @@
   </si>
   <si>
     <t>2021-08-02 22:06:11</t>
-  </si>
-  <si>
-    <t>26/05/2021</t>
   </si>
   <si>
     <t>maladie professionnelle</t>
@@ -786,7 +672,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1101,15 +987,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS37"/>
+  <dimension ref="A1:AR37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AR11" sqref="AR11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1132,13 +1018,13 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="I1" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="J1" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
@@ -1159,16 +1045,16 @@
         <v>15</v>
       </c>
       <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
-        <v>15</v>
-      </c>
       <c r="S1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" t="s">
         <v>17</v>
-      </c>
-      <c r="T1" t="s">
-        <v>15</v>
       </c>
       <c r="U1" t="s">
         <v>18</v>
@@ -1207,16 +1093,16 @@
         <v>29</v>
       </c>
       <c r="AG1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH1" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" t="s">
-        <v>29</v>
-      </c>
       <c r="AI1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>31</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>29</v>
       </c>
       <c r="AK1" t="s">
         <v>32</v>
@@ -1242,2411 +1128,2357 @@
       <c r="AR1" t="s">
         <v>39</v>
       </c>
-      <c r="AS1" t="s">
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>45</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
         <v>41</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>42</v>
       </c>
       <c r="E2">
         <v>487933298</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="I2">
         <v>30</v>
       </c>
       <c r="J2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2">
+        <v>480</v>
+      </c>
+      <c r="L2">
+        <v>6</v>
+      </c>
+      <c r="M2" t="s">
         <v>44</v>
       </c>
-      <c r="K2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2">
-        <v>480</v>
-      </c>
-      <c r="M2">
-        <v>6</v>
-      </c>
       <c r="N2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" t="s">
+        <v>202</v>
+      </c>
+      <c r="P2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>202</v>
+      </c>
+      <c r="R2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" t="s">
+        <v>202</v>
+      </c>
+      <c r="T2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V2" t="s">
         <v>46</v>
       </c>
-      <c r="O2" t="s">
-        <v>47</v>
-      </c>
-      <c r="P2" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>47</v>
-      </c>
-      <c r="R2" t="s">
-        <v>240</v>
-      </c>
-      <c r="S2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T2" t="s">
-        <v>240</v>
-      </c>
-      <c r="U2" t="s">
-        <v>44</v>
-      </c>
-      <c r="V2" t="s">
-        <v>47</v>
-      </c>
       <c r="W2" t="s">
+        <v>202</v>
+      </c>
+      <c r="X2">
+        <v>2</v>
+      </c>
+      <c r="Y2">
+        <v>2</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>202</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>202</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG2" t="s">
         <v>48</v>
       </c>
-      <c r="X2" t="s">
-        <v>240</v>
-      </c>
-      <c r="Y2">
-        <v>2</v>
-      </c>
-      <c r="Z2">
-        <v>2</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>240</v>
-      </c>
-      <c r="AB2">
-        <v>1</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>240</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>240</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>240</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>49</v>
-      </c>
       <c r="AH2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AI2" t="s">
         <v>49</v>
       </c>
       <c r="AJ2" t="s">
-        <v>51</v>
+        <v>202</v>
       </c>
       <c r="AK2" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AL2" t="s">
-        <v>240</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>240</v>
-      </c>
-      <c r="AN2">
-        <v>1</v>
+        <v>202</v>
+      </c>
+      <c r="AM2">
+        <v>1</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>202</v>
       </c>
       <c r="AO2" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AP2" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AQ2" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AR2" t="s">
-        <v>240</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3">
         <v>1864453099</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I3" t="s">
+        <v>202</v>
+      </c>
+      <c r="J3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3">
+        <v>480</v>
+      </c>
+      <c r="L3">
+        <v>7</v>
+      </c>
+      <c r="M3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" t="s">
+        <v>202</v>
+      </c>
+      <c r="P3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>202</v>
+      </c>
+      <c r="R3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S3" t="s">
+        <v>202</v>
+      </c>
+      <c r="T3" t="s">
+        <v>43</v>
+      </c>
+      <c r="U3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V3" t="s">
         <v>53</v>
       </c>
-      <c r="H3" t="s">
-        <v>240</v>
-      </c>
-      <c r="I3" t="s">
-        <v>240</v>
-      </c>
-      <c r="J3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3">
-        <v>84</v>
-      </c>
-      <c r="M3">
-        <v>7</v>
-      </c>
-      <c r="N3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O3" t="s">
-        <v>47</v>
-      </c>
-      <c r="P3" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>47</v>
-      </c>
-      <c r="R3" t="s">
-        <v>240</v>
-      </c>
-      <c r="S3" t="s">
-        <v>47</v>
-      </c>
-      <c r="T3" t="s">
-        <v>240</v>
-      </c>
-      <c r="U3" t="s">
-        <v>44</v>
-      </c>
-      <c r="V3" t="s">
-        <v>47</v>
-      </c>
       <c r="W3" t="s">
+        <v>202</v>
+      </c>
+      <c r="X3">
+        <v>2</v>
+      </c>
+      <c r="Y3">
+        <v>2</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>9</v>
+      </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE3" t="s">
         <v>55</v>
       </c>
-      <c r="X3">
-        <v>3</v>
-      </c>
-      <c r="Y3">
-        <v>2</v>
-      </c>
-      <c r="Z3">
-        <v>2</v>
-      </c>
-      <c r="AA3">
-        <v>1</v>
-      </c>
-      <c r="AB3">
-        <v>9</v>
-      </c>
-      <c r="AC3">
-        <v>1</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>240</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>49</v>
-      </c>
       <c r="AF3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI3" t="s">
         <v>57</v>
       </c>
-      <c r="AG3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AH3" t="s">
+      <c r="AJ3" t="s">
+        <v>202</v>
+      </c>
+      <c r="AK3">
+        <v>2</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>202</v>
+      </c>
+      <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>202</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>202</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>202</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
         <v>58</v>
       </c>
-      <c r="AI3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>240</v>
-      </c>
-      <c r="AL3">
-        <v>2</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>240</v>
-      </c>
-      <c r="AN3">
-        <v>1</v>
-      </c>
-      <c r="AO3">
-        <v>1</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>240</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>240</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>240</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>47</v>
-      </c>
-      <c r="B4" t="s">
-        <v>60</v>
-      </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4">
         <v>2099869039</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H4" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="I4">
         <v>32</v>
       </c>
       <c r="J4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4">
+        <v>84</v>
+      </c>
+      <c r="L4" t="s">
+        <v>202</v>
+      </c>
+      <c r="M4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" t="s">
+        <v>202</v>
+      </c>
+      <c r="P4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>202</v>
+      </c>
+      <c r="R4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S4" t="s">
+        <v>202</v>
+      </c>
+      <c r="T4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U4" t="s">
+        <v>45</v>
+      </c>
+      <c r="V4" t="s">
+        <v>61</v>
+      </c>
+      <c r="W4">
+        <v>3</v>
+      </c>
+      <c r="X4">
+        <v>2</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>202</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>202</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI4" t="s">
         <v>62</v>
       </c>
-      <c r="K4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L4">
-        <v>84</v>
-      </c>
-      <c r="M4" t="s">
-        <v>240</v>
-      </c>
-      <c r="N4" t="s">
-        <v>46</v>
-      </c>
-      <c r="O4" t="s">
-        <v>47</v>
-      </c>
-      <c r="P4" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>47</v>
-      </c>
-      <c r="R4" t="s">
-        <v>240</v>
-      </c>
-      <c r="S4" t="s">
-        <v>47</v>
-      </c>
-      <c r="T4" t="s">
-        <v>240</v>
-      </c>
-      <c r="U4" t="s">
-        <v>62</v>
-      </c>
-      <c r="V4" t="s">
-        <v>47</v>
-      </c>
-      <c r="W4" t="s">
-        <v>64</v>
-      </c>
-      <c r="X4" t="s">
-        <v>240</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>240</v>
-      </c>
-      <c r="Z4">
-        <v>1</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>240</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>240</v>
-      </c>
-      <c r="AC4">
-        <v>1</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>240</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>240</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>240</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>49</v>
-      </c>
       <c r="AJ4" t="s">
-        <v>65</v>
+        <v>202</v>
       </c>
       <c r="AK4" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AL4" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AM4" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AN4" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AO4" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AP4" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AQ4" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AR4" t="s">
-        <v>240</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5">
         <v>1666887287</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H5" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="I5">
         <v>33</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" t="s">
-        <v>68</v>
+        <v>60</v>
+      </c>
+      <c r="K5">
+        <v>84</v>
       </c>
       <c r="L5">
-        <v>9</v>
-      </c>
-      <c r="M5">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="M5" t="s">
+        <v>65</v>
       </c>
       <c r="N5" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="O5" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="P5" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="Q5" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="R5" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="S5" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="T5" t="s">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="U5" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="V5" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="W5" t="s">
-        <v>70</v>
-      </c>
-      <c r="X5" t="s">
-        <v>240</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>240</v>
+        <v>202</v>
+      </c>
+      <c r="X5">
+        <v>2</v>
+      </c>
+      <c r="Y5">
+        <v>2</v>
       </c>
       <c r="Z5">
-        <v>2</v>
-      </c>
-      <c r="AA5">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>202</v>
       </c>
       <c r="AB5" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AC5" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AD5" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="AE5" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="AF5" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="AG5" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="AH5" t="s">
-        <v>240</v>
+        <v>47</v>
       </c>
       <c r="AI5" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="AJ5" t="s">
-        <v>71</v>
+        <v>202</v>
       </c>
       <c r="AK5" t="s">
-        <v>240</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>240</v>
-      </c>
-      <c r="AM5">
-        <v>2</v>
+        <v>202</v>
+      </c>
+      <c r="AL5">
+        <v>2</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>202</v>
       </c>
       <c r="AN5" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AO5" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AP5" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AQ5" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AR5" t="s">
-        <v>240</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="C6" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6">
         <v>1968906475</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H6" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="I6" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="J6" t="s">
-        <v>73</v>
-      </c>
-      <c r="K6" t="s">
-        <v>240</v>
+        <v>43</v>
+      </c>
+      <c r="K6">
+        <v>9</v>
       </c>
       <c r="L6" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="M6" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="N6" t="s">
-        <v>240</v>
+        <v>69</v>
       </c>
       <c r="O6" t="s">
-        <v>73</v>
+        <v>202</v>
       </c>
       <c r="P6" t="s">
-        <v>240</v>
+        <v>69</v>
       </c>
       <c r="Q6" t="s">
-        <v>73</v>
+        <v>202</v>
       </c>
       <c r="R6" t="s">
-        <v>240</v>
+        <v>69</v>
       </c>
       <c r="S6" t="s">
-        <v>73</v>
+        <v>202</v>
       </c>
       <c r="T6" t="s">
-        <v>240</v>
+        <v>69</v>
       </c>
       <c r="U6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="V6" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="W6" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="X6" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="Y6" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="Z6" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AA6" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AB6" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AC6" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AD6" t="s">
-        <v>240</v>
+        <v>69</v>
       </c>
       <c r="AE6" t="s">
-        <v>73</v>
+        <v>202</v>
       </c>
       <c r="AF6" t="s">
-        <v>240</v>
+        <v>69</v>
       </c>
       <c r="AG6" t="s">
-        <v>73</v>
+        <v>202</v>
       </c>
       <c r="AH6" t="s">
-        <v>240</v>
+        <v>69</v>
       </c>
       <c r="AI6" t="s">
-        <v>73</v>
+        <v>202</v>
       </c>
       <c r="AJ6" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AK6" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AL6" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AM6" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AN6" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AO6" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AP6" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AQ6" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AR6" t="s">
-        <v>240</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>2140496726</v>
       </c>
       <c r="F7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H7" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="I7">
         <v>34</v>
       </c>
       <c r="J7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7">
+        <v>60</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L7">
-        <v>60</v>
-      </c>
-      <c r="M7">
+      <c r="N7" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>202</v>
+      </c>
+      <c r="R7" t="s">
+        <v>45</v>
+      </c>
+      <c r="S7" t="s">
+        <v>202</v>
+      </c>
+      <c r="T7" t="s">
+        <v>43</v>
+      </c>
+      <c r="U7" t="s">
+        <v>45</v>
+      </c>
+      <c r="V7" t="s">
+        <v>125</v>
+      </c>
+      <c r="W7" t="s">
+        <v>202</v>
+      </c>
+      <c r="X7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y7">
         <v>4</v>
       </c>
-      <c r="N7" t="s">
-        <v>46</v>
-      </c>
-      <c r="O7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>47</v>
-      </c>
-      <c r="R7" t="s">
-        <v>240</v>
-      </c>
-      <c r="S7" t="s">
-        <v>47</v>
-      </c>
-      <c r="T7" t="s">
-        <v>240</v>
-      </c>
-      <c r="U7" t="s">
-        <v>44</v>
-      </c>
-      <c r="V7" t="s">
-        <v>47</v>
-      </c>
-      <c r="W7" t="s">
-        <v>56</v>
-      </c>
-      <c r="X7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Z7">
-        <v>4</v>
+      <c r="Z7" t="s">
+        <v>202</v>
       </c>
       <c r="AA7" t="s">
-        <v>240</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>240</v>
-      </c>
-      <c r="AC7">
-        <v>2</v>
+        <v>202</v>
+      </c>
+      <c r="AB7">
+        <v>2</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>202</v>
       </c>
       <c r="AD7" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="AE7" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="AF7" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="AG7" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="AH7" t="s">
-        <v>240</v>
+        <v>47</v>
       </c>
       <c r="AI7" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="AJ7" t="s">
-        <v>77</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>240</v>
-      </c>
-      <c r="AL7">
-        <v>1</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>240</v>
-      </c>
-      <c r="AN7">
-        <v>1</v>
+        <v>202</v>
+      </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>202</v>
+      </c>
+      <c r="AM7">
+        <v>1</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>202</v>
       </c>
       <c r="AO7" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AP7" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AQ7" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AR7" t="s">
-        <v>240</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8">
         <v>568472714</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="I8">
         <v>35</v>
       </c>
       <c r="J8" t="s">
-        <v>62</v>
-      </c>
-      <c r="K8" t="s">
-        <v>81</v>
+        <v>43</v>
+      </c>
+      <c r="K8">
+        <v>120</v>
       </c>
       <c r="L8">
-        <v>120</v>
-      </c>
-      <c r="M8">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="M8" t="s">
+        <v>44</v>
       </c>
       <c r="N8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O8" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="P8" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="Q8" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="R8" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="S8" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="T8" t="s">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="U8" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="V8" t="s">
-        <v>47</v>
+        <v>132</v>
       </c>
       <c r="W8" t="s">
-        <v>56</v>
-      </c>
-      <c r="X8">
-        <v>1</v>
-      </c>
-      <c r="Y8">
-        <v>2</v>
+        <v>202</v>
+      </c>
+      <c r="X8" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>202</v>
       </c>
       <c r="Z8" t="s">
-        <v>240</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>240</v>
+        <v>202</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
       </c>
       <c r="AB8">
         <v>1</v>
       </c>
-      <c r="AC8">
-        <v>1</v>
+      <c r="AC8" t="s">
+        <v>202</v>
       </c>
       <c r="AD8" t="s">
-        <v>240</v>
+        <v>47</v>
       </c>
       <c r="AE8" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="AF8" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="AG8" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="AH8" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="AI8" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="AJ8" t="s">
-        <v>240</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>240</v>
-      </c>
-      <c r="AL8">
-        <v>1</v>
+        <v>202</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>202</v>
       </c>
       <c r="AM8" t="s">
-        <v>240</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>240</v>
-      </c>
-      <c r="AO8">
-        <v>1</v>
+        <v>202</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>202</v>
       </c>
       <c r="AP8" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AQ8" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AR8" t="s">
-        <v>240</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9">
         <v>921993789</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="I9">
         <v>36</v>
       </c>
       <c r="J9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9">
+        <v>9</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9" t="s">
         <v>44</v>
       </c>
-      <c r="K9" t="s">
-        <v>87</v>
-      </c>
-      <c r="L9">
-        <v>9</v>
-      </c>
-      <c r="M9">
-        <v>3</v>
-      </c>
       <c r="N9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O9" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="P9" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="Q9" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="R9" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="S9" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="T9" t="s">
-        <v>240</v>
+        <v>43</v>
       </c>
       <c r="U9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V9" t="s">
-        <v>47</v>
-      </c>
-      <c r="W9" t="s">
-        <v>88</v>
+        <v>138</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
       </c>
       <c r="X9" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="Y9" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="Z9" t="s">
-        <v>240</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>240</v>
-      </c>
-      <c r="AB9">
+        <v>202</v>
+      </c>
+      <c r="AA9">
         <v>8</v>
       </c>
+      <c r="AB9" t="s">
+        <v>202</v>
+      </c>
       <c r="AC9" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AD9" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="AE9" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="AF9" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="AG9" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="AH9" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="AI9" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="AJ9" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AK9" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AL9" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AM9" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AN9" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AO9" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AP9" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AQ9" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AR9" t="s">
-        <v>240</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10">
         <v>1322897383</v>
       </c>
       <c r="F10" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G10" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="I10">
         <v>37</v>
       </c>
       <c r="J10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10">
+        <v>30</v>
+      </c>
+      <c r="L10">
+        <v>6</v>
+      </c>
+      <c r="M10" t="s">
         <v>44</v>
       </c>
-      <c r="K10" t="s">
-        <v>91</v>
-      </c>
-      <c r="L10">
-        <v>30</v>
-      </c>
-      <c r="M10">
-        <v>6</v>
-      </c>
       <c r="N10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O10" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="P10" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="Q10" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="R10" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="S10" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="T10" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="U10" t="s">
-        <v>238</v>
+        <v>45</v>
       </c>
       <c r="V10" t="s">
-        <v>47</v>
+        <v>144</v>
       </c>
       <c r="W10" t="s">
-        <v>92</v>
-      </c>
-      <c r="X10" t="s">
-        <v>240</v>
+        <v>202</v>
+      </c>
+      <c r="X10">
+        <v>2</v>
       </c>
       <c r="Y10" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="Z10" t="s">
-        <v>240</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>240</v>
-      </c>
-      <c r="AB10">
-        <v>1</v>
+        <v>202</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>202</v>
       </c>
       <c r="AC10" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AD10" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="AE10" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="AF10" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="AG10" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="AH10" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="AI10" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="AJ10" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AK10" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AL10" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AM10" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AN10" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AO10" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AP10" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AQ10" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AR10" t="s">
-        <v>240</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11">
         <v>369746833</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="G11" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H11" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="I11">
         <v>39</v>
       </c>
       <c r="J11" t="s">
-        <v>62</v>
-      </c>
-      <c r="K11" t="s">
-        <v>95</v>
+        <v>43</v>
+      </c>
+      <c r="K11">
+        <v>36</v>
       </c>
       <c r="L11">
-        <v>36</v>
-      </c>
-      <c r="M11">
         <v>6</v>
       </c>
+      <c r="M11" t="s">
+        <v>44</v>
+      </c>
       <c r="N11" t="s">
-        <v>46</v>
-      </c>
-      <c r="O11" t="s">
-        <v>49</v>
-      </c>
-      <c r="P11">
-        <v>2017</v>
+        <v>47</v>
+      </c>
+      <c r="O11">
+        <v>2014</v>
+      </c>
+      <c r="P11" t="s">
+        <v>45</v>
       </c>
       <c r="Q11" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="R11" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="S11" t="s">
-        <v>47</v>
+        <v>201</v>
       </c>
       <c r="T11" t="s">
-        <v>239</v>
+        <v>60</v>
       </c>
       <c r="U11" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="V11" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="W11" t="s">
-        <v>96</v>
-      </c>
-      <c r="X11">
-        <v>2</v>
+        <v>202</v>
+      </c>
+      <c r="X11" t="s">
+        <v>202</v>
       </c>
       <c r="Y11">
-        <v>1</v>
-      </c>
-      <c r="Z11">
-        <v>2</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>240</v>
+        <v>2</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA11">
+        <v>4</v>
       </c>
       <c r="AB11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC11">
         <v>1</v>
       </c>
-      <c r="AD11">
-        <v>1</v>
+      <c r="AD11" t="s">
+        <v>47</v>
       </c>
       <c r="AE11" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="AF11" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="AG11" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AH11" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="AI11" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AJ11" t="s">
-        <v>58</v>
+        <v>202</v>
       </c>
       <c r="AK11" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AL11" t="s">
-        <v>240</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>240</v>
+        <v>202</v>
+      </c>
+      <c r="AM11">
+        <v>1</v>
       </c>
       <c r="AN11" t="s">
-        <v>240</v>
-      </c>
-      <c r="AO11">
-        <v>2</v>
+        <v>202</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>202</v>
       </c>
       <c r="AP11" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AQ11" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AR11" t="s">
-        <v>240</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12">
         <v>398554586</v>
       </c>
       <c r="F12" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G12" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="H12" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="I12">
         <v>40</v>
       </c>
       <c r="J12" t="s">
-        <v>62</v>
-      </c>
-      <c r="K12" t="s">
-        <v>101</v>
+        <v>60</v>
+      </c>
+      <c r="K12">
+        <v>150</v>
       </c>
       <c r="L12">
-        <v>150</v>
-      </c>
-      <c r="M12">
         <v>7</v>
       </c>
+      <c r="M12" t="s">
+        <v>44</v>
+      </c>
       <c r="N12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O12" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="P12" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="Q12" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="R12" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="S12" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="T12" t="s">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="U12" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="V12" t="s">
-        <v>47</v>
-      </c>
-      <c r="W12" t="s">
-        <v>102</v>
+        <v>153</v>
+      </c>
+      <c r="W12">
+        <v>2</v>
       </c>
       <c r="X12" t="s">
-        <v>240</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>240</v>
+        <v>202</v>
+      </c>
+      <c r="Y12">
+        <v>7</v>
       </c>
       <c r="Z12">
-        <v>7</v>
-      </c>
-      <c r="AA12">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>202</v>
       </c>
       <c r="AB12" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AC12" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AD12" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="AE12" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="AF12" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="AG12" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="AH12" t="s">
-        <v>240</v>
+        <v>47</v>
       </c>
       <c r="AI12" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="AJ12" t="s">
-        <v>103</v>
+        <v>202</v>
       </c>
       <c r="AK12" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AL12" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AM12" t="s">
-        <v>240</v>
-      </c>
-      <c r="AN12">
-        <v>1</v>
+        <v>202</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>202</v>
       </c>
       <c r="AO12" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AP12" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AQ12" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AR12" t="s">
-        <v>240</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13">
         <v>1584665187</v>
       </c>
       <c r="F13" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="G13" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="H13" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="I13">
         <v>41</v>
       </c>
       <c r="J13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13">
+        <v>90</v>
+      </c>
+      <c r="L13">
+        <v>6</v>
+      </c>
+      <c r="M13" t="s">
+        <v>44</v>
+      </c>
+      <c r="N13" t="s">
+        <v>45</v>
+      </c>
+      <c r="O13" t="s">
+        <v>202</v>
+      </c>
+      <c r="P13" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>202</v>
+      </c>
+      <c r="R13" t="s">
+        <v>45</v>
+      </c>
+      <c r="S13" t="s">
+        <v>202</v>
+      </c>
+      <c r="T13" t="s">
+        <v>60</v>
+      </c>
+      <c r="U13" t="s">
+        <v>45</v>
+      </c>
+      <c r="V13" t="s">
+        <v>98</v>
+      </c>
+      <c r="W13" t="s">
+        <v>202</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA13">
+        <v>1</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>202</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI13" t="s">
         <v>62</v>
       </c>
-      <c r="K13" t="s">
-        <v>106</v>
-      </c>
-      <c r="L13">
-        <v>90</v>
-      </c>
-      <c r="M13">
-        <v>6</v>
-      </c>
-      <c r="N13" t="s">
-        <v>46</v>
-      </c>
-      <c r="O13" t="s">
-        <v>47</v>
-      </c>
-      <c r="P13" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>47</v>
-      </c>
-      <c r="R13" t="s">
-        <v>240</v>
-      </c>
-      <c r="S13" t="s">
-        <v>47</v>
-      </c>
-      <c r="T13" t="s">
-        <v>240</v>
-      </c>
-      <c r="U13" t="s">
-        <v>62</v>
-      </c>
-      <c r="V13" t="s">
-        <v>47</v>
-      </c>
-      <c r="W13" t="s">
-        <v>107</v>
-      </c>
-      <c r="X13">
-        <v>1</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>240</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>240</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>240</v>
-      </c>
-      <c r="AB13">
-        <v>1</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>240</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>240</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>49</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>65</v>
-      </c>
-      <c r="AK13">
-        <v>1</v>
+      <c r="AJ13">
+        <v>1</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>202</v>
       </c>
       <c r="AL13" t="s">
-        <v>240</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>240</v>
+        <v>202</v>
+      </c>
+      <c r="AM13">
+        <v>1</v>
       </c>
       <c r="AN13" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AO13" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AP13" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AQ13" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AR13" t="s">
-        <v>240</v>
-      </c>
-      <c r="AS13" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14">
         <v>766391069</v>
       </c>
       <c r="F14" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="G14" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="H14" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="I14">
         <v>42</v>
       </c>
       <c r="J14" t="s">
-        <v>234</v>
-      </c>
-      <c r="K14" t="s">
-        <v>111</v>
+        <v>60</v>
+      </c>
+      <c r="K14">
+        <v>90</v>
       </c>
       <c r="L14">
-        <v>96</v>
-      </c>
-      <c r="M14">
         <v>6</v>
       </c>
+      <c r="M14" t="s">
+        <v>44</v>
+      </c>
       <c r="N14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O14" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="P14" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="Q14" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="R14" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="S14" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="T14" t="s">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="U14" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="V14" t="s">
-        <v>47</v>
-      </c>
-      <c r="W14" t="s">
-        <v>112</v>
+        <v>160</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
       </c>
       <c r="X14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y14">
-        <v>2</v>
-      </c>
-      <c r="Z14">
         <v>5</v>
       </c>
-      <c r="AA14" t="s">
-        <v>240</v>
-      </c>
-      <c r="AB14">
-        <v>2</v>
+      <c r="Z14" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA14">
+        <v>2</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>202</v>
       </c>
       <c r="AC14" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AD14" t="s">
-        <v>240</v>
+        <v>47</v>
       </c>
       <c r="AE14" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="AF14" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="AG14" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="AH14" t="s">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="AI14" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>115</v>
+        <v>101</v>
+      </c>
+      <c r="AJ14">
+        <v>2</v>
       </c>
       <c r="AK14">
         <v>2</v>
       </c>
-      <c r="AL14">
-        <v>2</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>240</v>
-      </c>
-      <c r="AN14">
-        <v>1</v>
+      <c r="AL14" t="s">
+        <v>202</v>
+      </c>
+      <c r="AM14">
+        <v>2</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>202</v>
       </c>
       <c r="AO14" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AP14" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AQ14" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AR14" t="s">
-        <v>240</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15">
         <v>1091387252</v>
       </c>
       <c r="F15" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="G15" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="H15" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="I15">
         <v>43</v>
       </c>
       <c r="J15" t="s">
-        <v>62</v>
-      </c>
-      <c r="K15" t="s">
-        <v>118</v>
+        <v>196</v>
+      </c>
+      <c r="K15">
+        <v>96</v>
       </c>
       <c r="L15">
-        <v>180</v>
-      </c>
-      <c r="M15">
         <v>6</v>
       </c>
+      <c r="M15" t="s">
+        <v>44</v>
+      </c>
       <c r="N15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="P15" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="Q15" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="R15" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="S15" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="T15" t="s">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="U15" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="V15" t="s">
-        <v>47</v>
-      </c>
-      <c r="W15" t="s">
-        <v>119</v>
+        <v>81</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
       </c>
       <c r="X15" t="s">
-        <v>240</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>240</v>
+        <v>202</v>
+      </c>
+      <c r="Y15">
+        <v>2</v>
       </c>
       <c r="Z15">
-        <v>2</v>
-      </c>
-      <c r="AA15">
-        <v>1</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>240</v>
-      </c>
-      <c r="AC15">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB15">
+        <v>1</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>202</v>
       </c>
       <c r="AD15" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="AE15" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="AF15" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="AG15" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="AH15" t="s">
-        <v>240</v>
+        <v>47</v>
       </c>
       <c r="AI15" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK15">
-        <v>1</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>240</v>
+        <v>56</v>
+      </c>
+      <c r="AJ15">
+        <v>1</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>202</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
       </c>
       <c r="AM15">
         <v>1</v>
       </c>
-      <c r="AN15">
-        <v>2</v>
+      <c r="AN15" t="s">
+        <v>202</v>
       </c>
       <c r="AO15" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AP15" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AQ15" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AR15" t="s">
-        <v>240</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16">
         <v>573991930</v>
       </c>
       <c r="F16" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="G16" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="H16" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="I16">
         <v>44</v>
       </c>
       <c r="J16" t="s">
-        <v>62</v>
-      </c>
-      <c r="K16" t="s">
-        <v>122</v>
+        <v>60</v>
+      </c>
+      <c r="K16">
+        <v>180</v>
       </c>
       <c r="L16">
-        <v>7</v>
-      </c>
-      <c r="M16">
         <v>6</v>
       </c>
+      <c r="M16" t="s">
+        <v>65</v>
+      </c>
       <c r="N16" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="O16" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="P16" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="Q16" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="R16" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="S16" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="T16" t="s">
-        <v>240</v>
+        <v>43</v>
       </c>
       <c r="U16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V16" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="W16" t="s">
-        <v>123</v>
-      </c>
-      <c r="X16">
-        <v>1</v>
+        <v>202</v>
+      </c>
+      <c r="X16" t="s">
+        <v>202</v>
       </c>
       <c r="Y16" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="Z16" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AA16" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AB16" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AC16" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AD16" t="s">
-        <v>240</v>
+        <v>47</v>
       </c>
       <c r="AE16" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="AF16" t="s">
-        <v>124</v>
+        <v>45</v>
       </c>
       <c r="AG16" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="AH16" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="AI16" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="AJ16" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AK16" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AL16" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AM16" t="s">
-        <v>240</v>
-      </c>
-      <c r="AN16">
-        <v>1</v>
+        <v>202</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>202</v>
       </c>
       <c r="AO16" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AP16" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AQ16" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AR16" t="s">
-        <v>240</v>
-      </c>
-      <c r="AS16" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17">
         <v>1259059006</v>
       </c>
       <c r="F17" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="G17" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="H17" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="I17">
         <v>45</v>
       </c>
       <c r="J17" t="s">
-        <v>235</v>
-      </c>
-      <c r="K17" t="s">
-        <v>127</v>
+        <v>60</v>
+      </c>
+      <c r="K17">
+        <v>7</v>
       </c>
       <c r="L17">
-        <v>84</v>
-      </c>
-      <c r="M17">
         <v>5</v>
       </c>
+      <c r="M17" t="s">
+        <v>44</v>
+      </c>
       <c r="N17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O17" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="P17" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="Q17" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="R17" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="S17" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="T17" t="s">
-        <v>240</v>
+        <v>69</v>
       </c>
       <c r="U17" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="V17" t="s">
-        <v>47</v>
-      </c>
-      <c r="W17" t="s">
-        <v>128</v>
+        <v>87</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
       </c>
       <c r="X17" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="Y17" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="Z17" t="s">
-        <v>240</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>240</v>
-      </c>
-      <c r="AB17">
+        <v>202</v>
+      </c>
+      <c r="AA17">
         <v>3</v>
       </c>
+      <c r="AB17" t="s">
+        <v>202</v>
+      </c>
       <c r="AC17" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AD17" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="AE17" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="AF17" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="AG17" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="AH17" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="AI17" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="AJ17" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AK17" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AL17" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AM17" t="s">
-        <v>240</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>240</v>
+        <v>202</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
       </c>
       <c r="AO17" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AP17" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AQ17" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AR17" t="s">
-        <v>240</v>
-      </c>
-      <c r="AS17" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18">
         <v>1109464777</v>
       </c>
       <c r="F18" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="G18" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="H18" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="I18">
         <v>46</v>
       </c>
       <c r="J18" t="s">
-        <v>240</v>
-      </c>
-      <c r="K18" t="s">
-        <v>132</v>
+        <v>197</v>
+      </c>
+      <c r="K18">
+        <v>84</v>
       </c>
       <c r="L18">
-        <v>120</v>
-      </c>
-      <c r="M18">
         <v>6</v>
       </c>
+      <c r="M18" t="s">
+        <v>65</v>
+      </c>
       <c r="N18" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="O18" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="P18" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="Q18" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="R18" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="S18" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="T18" t="s">
-        <v>240</v>
+        <v>43</v>
       </c>
       <c r="U18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V18" t="s">
-        <v>47</v>
-      </c>
-      <c r="W18" t="s">
-        <v>133</v>
-      </c>
-      <c r="X18">
-        <v>2</v>
+        <v>115</v>
+      </c>
+      <c r="W18">
+        <v>2</v>
+      </c>
+      <c r="X18" t="s">
+        <v>202</v>
       </c>
       <c r="Y18" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="Z18" t="s">
-        <v>240</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>240</v>
-      </c>
-      <c r="AB18">
-        <v>2</v>
+        <v>202</v>
+      </c>
+      <c r="AA18">
+        <v>2</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>202</v>
       </c>
       <c r="AC18" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AD18" t="s">
-        <v>240</v>
+        <v>47</v>
       </c>
       <c r="AE18" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="AF18" t="s">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="AG18" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="AH18" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="AI18" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="AJ18" t="s">
-        <v>240</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>240</v>
-      </c>
-      <c r="AL18">
-        <v>1</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>240</v>
+        <v>202</v>
+      </c>
+      <c r="AK18">
+        <v>1</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>202</v>
+      </c>
+      <c r="AM18">
+        <v>1</v>
       </c>
       <c r="AN18" t="s">
-        <v>240</v>
-      </c>
-      <c r="AO18">
-        <v>1</v>
+        <v>202</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>202</v>
       </c>
       <c r="AP18" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AQ18" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AR18" t="s">
-        <v>240</v>
-      </c>
-      <c r="AS18" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E19">
         <v>1956578762</v>
       </c>
       <c r="F19" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="G19" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="H19" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="I19">
         <v>47</v>
       </c>
       <c r="J19" t="s">
-        <v>62</v>
-      </c>
-      <c r="K19" t="s">
-        <v>137</v>
+        <v>60</v>
+      </c>
+      <c r="K19">
+        <v>120</v>
       </c>
       <c r="L19">
-        <v>120</v>
-      </c>
-      <c r="M19">
         <v>5</v>
       </c>
+      <c r="M19" t="s">
+        <v>199</v>
+      </c>
       <c r="N19" t="s">
-        <v>237</v>
+        <v>45</v>
       </c>
       <c r="O19" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="P19" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="Q19" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="R19" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="S19" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="T19" t="s">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="U19" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="V19" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="W19" t="s">
-        <v>138</v>
-      </c>
-      <c r="X19" t="s">
-        <v>240</v>
+        <v>202</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
       </c>
       <c r="Y19">
         <v>1</v>
@@ -3654,88 +3486,85 @@
       <c r="Z19">
         <v>1</v>
       </c>
-      <c r="AA19">
-        <v>1</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>240</v>
-      </c>
-      <c r="AC19">
-        <v>2</v>
+      <c r="AA19" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB19">
+        <v>2</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>202</v>
       </c>
       <c r="AD19" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="AE19" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="AF19" t="s">
-        <v>240</v>
+        <v>47</v>
       </c>
       <c r="AG19" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AH19" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="AI19" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AJ19" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>240</v>
-      </c>
-      <c r="AL19">
-        <v>1</v>
+        <v>202</v>
+      </c>
+      <c r="AK19">
+        <v>1</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>202</v>
       </c>
       <c r="AM19" t="s">
-        <v>240</v>
-      </c>
-      <c r="AN19">
-        <v>1</v>
+        <v>202</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>202</v>
       </c>
       <c r="AO19" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AP19" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AQ19" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AR19" t="s">
-        <v>240</v>
-      </c>
-      <c r="AS19" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E20">
         <v>566444014</v>
       </c>
       <c r="F20" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="G20" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="H20" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="I20">
         <v>48</v>
@@ -3743,318 +3572,312 @@
       <c r="J20">
         <v>45</v>
       </c>
-      <c r="K20" t="s">
-        <v>141</v>
+      <c r="K20">
+        <v>120</v>
       </c>
       <c r="L20">
-        <v>360</v>
-      </c>
-      <c r="M20">
         <v>6</v>
       </c>
+      <c r="M20" t="s">
+        <v>65</v>
+      </c>
       <c r="N20" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="O20" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="P20" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="Q20" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="R20" t="s">
-        <v>240</v>
+        <v>47</v>
       </c>
       <c r="S20" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="T20" t="s">
-        <v>142</v>
+        <v>60</v>
       </c>
       <c r="U20" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="V20" t="s">
-        <v>47</v>
-      </c>
-      <c r="W20" t="s">
-        <v>143</v>
+        <v>119</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
       </c>
       <c r="X20">
         <v>1</v>
       </c>
       <c r="Y20">
-        <v>1</v>
-      </c>
-      <c r="Z20">
-        <v>2</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>240</v>
-      </c>
-      <c r="AB20">
+        <v>2</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA20">
         <v>4</v>
       </c>
+      <c r="AB20" t="s">
+        <v>202</v>
+      </c>
       <c r="AC20" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AD20" t="s">
-        <v>240</v>
+        <v>47</v>
       </c>
       <c r="AE20" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="AF20" t="s">
-        <v>144</v>
+        <v>47</v>
       </c>
       <c r="AG20" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="AH20" t="s">
-        <v>145</v>
+        <v>47</v>
       </c>
       <c r="AI20" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="AJ20" t="s">
-        <v>146</v>
+        <v>202</v>
       </c>
       <c r="AK20" t="s">
-        <v>240</v>
-      </c>
-      <c r="AL20" t="s">
-        <v>240</v>
-      </c>
-      <c r="AM20">
+        <v>202</v>
+      </c>
+      <c r="AL20">
         <v>3</v>
       </c>
-      <c r="AN20" t="s">
-        <v>240</v>
+      <c r="AM20" t="s">
+        <v>202</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
       </c>
       <c r="AO20" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AP20" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AQ20" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AR20" t="s">
-        <v>240</v>
-      </c>
-      <c r="AS20" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>64</v>
       </c>
       <c r="B21" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E21">
         <v>1241166767</v>
       </c>
       <c r="F21" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="G21" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="H21" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="I21">
         <v>49</v>
       </c>
       <c r="J21" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21">
+        <v>360</v>
+      </c>
+      <c r="L21">
+        <v>7</v>
+      </c>
+      <c r="M21" t="s">
         <v>44</v>
       </c>
-      <c r="K21" t="s">
-        <v>149</v>
-      </c>
-      <c r="L21" t="s">
-        <v>236</v>
-      </c>
-      <c r="M21">
+      <c r="N21" t="s">
+        <v>45</v>
+      </c>
+      <c r="O21" t="s">
+        <v>202</v>
+      </c>
+      <c r="P21" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>202</v>
+      </c>
+      <c r="R21" t="s">
+        <v>47</v>
+      </c>
+      <c r="S21" t="s">
+        <v>118</v>
+      </c>
+      <c r="T21" t="s">
+        <v>43</v>
+      </c>
+      <c r="U21" t="s">
+        <v>45</v>
+      </c>
+      <c r="V21" t="s">
+        <v>125</v>
+      </c>
+      <c r="W21">
+        <v>8</v>
+      </c>
+      <c r="X21">
+        <v>3</v>
+      </c>
+      <c r="Y21">
         <v>7</v>
       </c>
-      <c r="N21" t="s">
-        <v>46</v>
-      </c>
-      <c r="O21" t="s">
-        <v>47</v>
-      </c>
-      <c r="P21" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>47</v>
-      </c>
-      <c r="R21" t="s">
-        <v>240</v>
-      </c>
-      <c r="S21" t="s">
-        <v>49</v>
-      </c>
-      <c r="T21" t="s">
-        <v>142</v>
-      </c>
-      <c r="U21" t="s">
-        <v>44</v>
-      </c>
-      <c r="V21" t="s">
-        <v>47</v>
-      </c>
-      <c r="W21" t="s">
-        <v>150</v>
-      </c>
-      <c r="X21">
-        <v>8</v>
-      </c>
-      <c r="Y21">
+      <c r="Z21" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA21">
+        <v>10</v>
+      </c>
+      <c r="AB21">
+        <v>2</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>202</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>202</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>202</v>
+      </c>
+      <c r="AM21">
         <v>3</v>
       </c>
-      <c r="Z21">
-        <v>7</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>240</v>
-      </c>
-      <c r="AB21">
-        <v>10</v>
-      </c>
-      <c r="AC21">
-        <v>2</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>240</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>151</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>49</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>152</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>153</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>240</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>240</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>240</v>
-      </c>
       <c r="AN21" t="s">
-        <v>240</v>
-      </c>
-      <c r="AO21">
-        <v>1</v>
+        <v>202</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>202</v>
       </c>
       <c r="AP21" t="s">
-        <v>240</v>
-      </c>
-      <c r="AQ21" t="s">
-        <v>240</v>
-      </c>
-      <c r="AR21">
-        <v>1</v>
-      </c>
-      <c r="AS21" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="AQ21">
+        <v>1</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E22">
         <v>1898453525</v>
       </c>
       <c r="F22" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="G22" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="H22" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="I22">
         <v>50</v>
       </c>
       <c r="J22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K22" t="s">
-        <v>156</v>
+        <v>198</v>
       </c>
       <c r="L22">
-        <v>48</v>
-      </c>
-      <c r="M22">
         <v>7</v>
       </c>
+      <c r="M22" t="s">
+        <v>44</v>
+      </c>
       <c r="N22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O22" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="P22" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="Q22" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="R22" t="s">
-        <v>240</v>
+        <v>47</v>
       </c>
       <c r="S22" t="s">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c r="T22" t="s">
-        <v>157</v>
+        <v>60</v>
       </c>
       <c r="U22" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="V22" t="s">
-        <v>47</v>
-      </c>
-      <c r="W22" t="s">
-        <v>158</v>
+        <v>132</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
       </c>
       <c r="X22">
         <v>1</v>
@@ -4062,2120 +3885,2072 @@
       <c r="Y22">
         <v>1</v>
       </c>
-      <c r="Z22">
-        <v>1</v>
+      <c r="Z22" t="s">
+        <v>202</v>
       </c>
       <c r="AA22" t="s">
-        <v>240</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>240</v>
+        <v>202</v>
+      </c>
+      <c r="AB22">
+        <v>4</v>
       </c>
       <c r="AC22">
-        <v>4</v>
-      </c>
-      <c r="AD22">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>47</v>
       </c>
       <c r="AE22" t="s">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="AF22" t="s">
-        <v>159</v>
+        <v>47</v>
       </c>
       <c r="AG22" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="AH22" t="s">
-        <v>160</v>
+        <v>47</v>
       </c>
       <c r="AI22" t="s">
         <v>49</v>
       </c>
       <c r="AJ22" t="s">
-        <v>51</v>
+        <v>202</v>
       </c>
       <c r="AK22" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AL22" t="s">
-        <v>240</v>
-      </c>
-      <c r="AM22" t="s">
-        <v>240</v>
-      </c>
-      <c r="AN22">
-        <v>3</v>
+        <v>202</v>
+      </c>
+      <c r="AM22">
+        <v>1</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>202</v>
       </c>
       <c r="AO22" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AP22" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AQ22" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AR22" t="s">
-        <v>240</v>
-      </c>
-      <c r="AS22" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E23">
         <v>1561671822</v>
       </c>
       <c r="F23" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="G23" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="H23" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="I23">
         <v>51</v>
       </c>
       <c r="J23" t="s">
-        <v>44</v>
-      </c>
-      <c r="K23" t="s">
-        <v>164</v>
+        <v>43</v>
+      </c>
+      <c r="K23">
+        <v>48</v>
       </c>
       <c r="L23">
-        <v>132</v>
-      </c>
-      <c r="M23">
         <v>3</v>
       </c>
+      <c r="M23" t="s">
+        <v>65</v>
+      </c>
       <c r="N23" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="O23" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="P23" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="Q23" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="R23" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="S23" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="T23" t="s">
-        <v>240</v>
+        <v>43</v>
       </c>
       <c r="U23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V23" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="W23" t="s">
-        <v>165</v>
-      </c>
-      <c r="X23" t="s">
-        <v>240</v>
+        <v>202</v>
+      </c>
+      <c r="X23">
+        <v>2</v>
       </c>
       <c r="Y23">
         <v>2</v>
       </c>
-      <c r="Z23">
-        <v>2</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>240</v>
-      </c>
-      <c r="AB23">
-        <v>1</v>
+      <c r="Z23" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA23">
+        <v>1</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>202</v>
       </c>
       <c r="AC23" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AD23" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="AE23" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="AF23" t="s">
-        <v>240</v>
+        <v>47</v>
       </c>
       <c r="AG23" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="AH23" t="s">
-        <v>166</v>
+        <v>47</v>
       </c>
       <c r="AI23" t="s">
-        <v>49</v>
+        <v>140</v>
       </c>
       <c r="AJ23" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="AK23" t="s">
-        <v>240</v>
-      </c>
-      <c r="AL23" t="s">
-        <v>240</v>
-      </c>
-      <c r="AM23">
-        <v>2</v>
+        <v>202</v>
+      </c>
+      <c r="AL23">
+        <v>2</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>202</v>
       </c>
       <c r="AN23">
         <v>1</v>
       </c>
       <c r="AO23" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AP23" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AQ23" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AR23" t="s">
-        <v>240</v>
-      </c>
-      <c r="AS23" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E24">
         <v>1938515927</v>
       </c>
       <c r="F24" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="G24" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="H24" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="I24">
         <v>52</v>
       </c>
       <c r="J24" t="s">
+        <v>60</v>
+      </c>
+      <c r="K24">
+        <v>132</v>
+      </c>
+      <c r="L24">
+        <v>5</v>
+      </c>
+      <c r="M24" t="s">
+        <v>44</v>
+      </c>
+      <c r="N24" t="s">
+        <v>47</v>
+      </c>
+      <c r="O24">
+        <v>1999</v>
+      </c>
+      <c r="P24" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>202</v>
+      </c>
+      <c r="R24" t="s">
+        <v>45</v>
+      </c>
+      <c r="S24" t="s">
+        <v>202</v>
+      </c>
+      <c r="T24" t="s">
+        <v>60</v>
+      </c>
+      <c r="U24" t="s">
+        <v>45</v>
+      </c>
+      <c r="V24" t="s">
+        <v>144</v>
+      </c>
+      <c r="W24">
+        <v>2</v>
+      </c>
+      <c r="X24" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y24">
+        <v>1</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA24">
+        <v>1</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>202</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>202</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI24" t="s">
         <v>62</v>
       </c>
-      <c r="K24" t="s">
-        <v>171</v>
-      </c>
-      <c r="L24">
-        <v>84</v>
-      </c>
-      <c r="M24">
-        <v>5</v>
-      </c>
-      <c r="N24" t="s">
-        <v>46</v>
-      </c>
-      <c r="O24" t="s">
-        <v>49</v>
-      </c>
-      <c r="P24">
-        <v>2014</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>47</v>
-      </c>
-      <c r="R24" t="s">
-        <v>240</v>
-      </c>
-      <c r="S24" t="s">
-        <v>47</v>
-      </c>
-      <c r="T24" t="s">
-        <v>240</v>
-      </c>
-      <c r="U24" t="s">
-        <v>62</v>
-      </c>
-      <c r="V24" t="s">
-        <v>47</v>
-      </c>
-      <c r="W24" t="s">
-        <v>172</v>
-      </c>
-      <c r="X24">
-        <v>2</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>240</v>
-      </c>
-      <c r="Z24">
-        <v>1</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>240</v>
-      </c>
-      <c r="AB24">
-        <v>1</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>240</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>240</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>173</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>240</v>
-      </c>
-      <c r="AI24" t="s">
-        <v>49</v>
-      </c>
       <c r="AJ24" t="s">
-        <v>65</v>
+        <v>202</v>
       </c>
       <c r="AK24" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AL24" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AM24" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AN24" t="s">
-        <v>240</v>
-      </c>
-      <c r="AO24">
-        <v>1</v>
+        <v>202</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>202</v>
       </c>
       <c r="AP24" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AQ24" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AR24" t="s">
-        <v>240</v>
-      </c>
-      <c r="AS24" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E25">
         <v>124510781</v>
       </c>
       <c r="F25" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="G25" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="H25" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="I25">
         <v>53</v>
       </c>
       <c r="J25" t="s">
-        <v>62</v>
-      </c>
-      <c r="K25" t="s">
-        <v>127</v>
+        <v>60</v>
+      </c>
+      <c r="K25">
+        <v>84</v>
       </c>
       <c r="L25">
-        <v>72</v>
-      </c>
-      <c r="M25">
         <v>7</v>
       </c>
+      <c r="M25" t="s">
+        <v>65</v>
+      </c>
       <c r="N25" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="O25" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="P25" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="Q25" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="R25" t="s">
-        <v>240</v>
+        <v>47</v>
       </c>
       <c r="S25" t="s">
-        <v>49</v>
+        <v>149</v>
       </c>
       <c r="T25" t="s">
-        <v>177</v>
+        <v>60</v>
       </c>
       <c r="U25" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="V25" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="W25" t="s">
-        <v>165</v>
-      </c>
-      <c r="X25" t="s">
-        <v>240</v>
+        <v>202</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
       </c>
       <c r="Y25">
-        <v>1</v>
-      </c>
-      <c r="Z25">
-        <v>2</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>240</v>
-      </c>
-      <c r="AB25">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA25">
+        <v>1</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>202</v>
       </c>
       <c r="AC25" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AD25" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="AE25" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="AF25" t="s">
-        <v>240</v>
+        <v>47</v>
       </c>
       <c r="AG25" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AH25" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="AI25" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ25" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK25">
-        <v>2</v>
+        <v>56</v>
+      </c>
+      <c r="AJ25">
+        <v>2</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>202</v>
       </c>
       <c r="AL25" t="s">
-        <v>240</v>
-      </c>
-      <c r="AM25" t="s">
-        <v>240</v>
+        <v>202</v>
+      </c>
+      <c r="AM25">
+        <v>2</v>
       </c>
       <c r="AN25" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AO25" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AP25" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AQ25" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AR25" t="s">
-        <v>240</v>
-      </c>
-      <c r="AS25" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E26">
         <v>528140942</v>
       </c>
       <c r="F26" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="G26" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="H26" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="I26">
         <v>54</v>
       </c>
       <c r="J26" t="s">
-        <v>62</v>
-      </c>
-      <c r="K26" t="s">
-        <v>181</v>
+        <v>60</v>
+      </c>
+      <c r="K26">
+        <v>72</v>
       </c>
       <c r="L26">
-        <v>48</v>
-      </c>
-      <c r="M26">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="M26" t="s">
+        <v>44</v>
       </c>
       <c r="N26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O26" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="P26" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="Q26" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="R26" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="S26" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="T26" t="s">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="U26" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="V26" t="s">
-        <v>47</v>
+        <v>153</v>
       </c>
       <c r="W26" t="s">
-        <v>182</v>
-      </c>
-      <c r="X26" t="s">
-        <v>240</v>
+        <v>202</v>
+      </c>
+      <c r="X26">
+        <v>1</v>
       </c>
       <c r="Y26">
         <v>1</v>
       </c>
-      <c r="Z26">
-        <v>1</v>
+      <c r="Z26" t="s">
+        <v>202</v>
       </c>
       <c r="AA26" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AB26" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AC26" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AD26" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="AE26" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="AF26" t="s">
-        <v>240</v>
+        <v>47</v>
       </c>
       <c r="AG26" t="s">
         <v>49</v>
       </c>
       <c r="AH26" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="AI26" t="s">
         <v>49</v>
       </c>
       <c r="AJ26" t="s">
-        <v>51</v>
+        <v>202</v>
       </c>
       <c r="AK26" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AL26" t="s">
-        <v>240</v>
-      </c>
-      <c r="AM26" t="s">
-        <v>240</v>
+        <v>202</v>
+      </c>
+      <c r="AM26">
+        <v>1</v>
       </c>
       <c r="AN26">
         <v>2</v>
       </c>
       <c r="AO26" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AP26" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AQ26" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AR26" t="s">
-        <v>240</v>
-      </c>
-      <c r="AS26" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E27">
         <v>1175881910</v>
       </c>
       <c r="F27" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="G27" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="H27" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="I27">
         <v>55</v>
       </c>
       <c r="J27" t="s">
+        <v>43</v>
+      </c>
+      <c r="K27">
+        <v>48</v>
+      </c>
+      <c r="L27">
+        <v>4</v>
+      </c>
+      <c r="M27" t="s">
         <v>44</v>
       </c>
-      <c r="K27" t="s">
-        <v>186</v>
-      </c>
-      <c r="L27">
-        <v>72</v>
-      </c>
-      <c r="M27">
-        <v>4</v>
-      </c>
       <c r="N27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O27" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="P27" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="Q27" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="R27" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="S27" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="T27" t="s">
-        <v>240</v>
+        <v>43</v>
       </c>
       <c r="U27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V27" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="W27" t="s">
-        <v>112</v>
-      </c>
-      <c r="X27" t="s">
-        <v>240</v>
+        <v>202</v>
+      </c>
+      <c r="X27">
+        <v>1</v>
       </c>
       <c r="Y27">
-        <v>1</v>
-      </c>
-      <c r="Z27">
-        <v>2</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>240</v>
-      </c>
-      <c r="AB27">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA27">
+        <v>2</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>202</v>
       </c>
       <c r="AC27" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AD27" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="AE27" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="AF27" t="s">
-        <v>240</v>
+        <v>47</v>
       </c>
       <c r="AG27" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AH27" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="AI27" t="s">
-        <v>49</v>
+        <v>157</v>
       </c>
       <c r="AJ27" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="AK27" t="s">
-        <v>240</v>
-      </c>
-      <c r="AL27" t="s">
-        <v>240</v>
+        <v>202</v>
+      </c>
+      <c r="AL27">
+        <v>1</v>
       </c>
       <c r="AM27">
         <v>1</v>
       </c>
       <c r="AN27">
-        <v>1</v>
-      </c>
-      <c r="AO27">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>202</v>
       </c>
       <c r="AP27" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AQ27" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AR27" t="s">
-        <v>240</v>
-      </c>
-      <c r="AS27" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E28">
         <v>913259321</v>
       </c>
       <c r="F28" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="G28" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="H28" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="I28">
         <v>56</v>
       </c>
       <c r="J28" t="s">
-        <v>62</v>
-      </c>
-      <c r="K28" t="s">
-        <v>190</v>
+        <v>60</v>
+      </c>
+      <c r="K28">
+        <v>72</v>
       </c>
       <c r="L28">
-        <v>36</v>
-      </c>
-      <c r="M28">
         <v>8</v>
       </c>
+      <c r="M28" t="s">
+        <v>44</v>
+      </c>
       <c r="N28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O28" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="P28" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="Q28" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="R28" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="S28" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="T28" t="s">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="U28" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="V28" t="s">
-        <v>47</v>
-      </c>
-      <c r="W28" t="s">
-        <v>191</v>
-      </c>
-      <c r="X28">
+        <v>160</v>
+      </c>
+      <c r="W28">
         <v>4</v>
       </c>
-      <c r="Y28" t="s">
-        <v>240</v>
-      </c>
-      <c r="Z28">
+      <c r="X28" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y28">
         <v>6</v>
       </c>
-      <c r="AA28" t="s">
-        <v>240</v>
-      </c>
-      <c r="AB28">
+      <c r="Z28" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA28">
         <v>4</v>
       </c>
+      <c r="AB28" t="s">
+        <v>202</v>
+      </c>
       <c r="AC28" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AD28" t="s">
-        <v>240</v>
+        <v>47</v>
       </c>
       <c r="AE28" t="s">
-        <v>49</v>
+        <v>161</v>
       </c>
       <c r="AF28" t="s">
-        <v>192</v>
+        <v>45</v>
       </c>
       <c r="AG28" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="AH28" t="s">
-        <v>240</v>
+        <v>47</v>
       </c>
       <c r="AI28" t="s">
-        <v>49</v>
+        <v>162</v>
       </c>
       <c r="AJ28" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="AK28" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AL28" t="s">
-        <v>240</v>
-      </c>
-      <c r="AM28" t="s">
-        <v>240</v>
-      </c>
-      <c r="AN28">
-        <v>1</v>
+        <v>202</v>
+      </c>
+      <c r="AM28">
+        <v>1</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>202</v>
       </c>
       <c r="AO28" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AP28" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AQ28" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AR28" t="s">
-        <v>240</v>
-      </c>
-      <c r="AS28" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>72</v>
       </c>
       <c r="B29" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E29">
         <v>94786689</v>
       </c>
       <c r="F29" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="G29" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="H29" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="I29">
         <v>57</v>
       </c>
       <c r="J29" t="s">
-        <v>62</v>
-      </c>
-      <c r="K29" t="s">
-        <v>156</v>
+        <v>60</v>
+      </c>
+      <c r="K29">
+        <v>36</v>
       </c>
       <c r="L29">
-        <v>15</v>
-      </c>
-      <c r="M29">
         <v>10</v>
       </c>
+      <c r="M29" t="s">
+        <v>65</v>
+      </c>
       <c r="N29" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="O29" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="P29" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="Q29" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="R29" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="S29" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="T29" t="s">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="U29" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="V29" t="s">
-        <v>49</v>
-      </c>
-      <c r="W29" t="s">
-        <v>196</v>
-      </c>
-      <c r="X29">
-        <v>1</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>240</v>
+        <v>165</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="X29" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y29">
+        <v>6</v>
       </c>
       <c r="Z29">
+        <v>1</v>
+      </c>
+      <c r="AA29">
         <v>6</v>
       </c>
-      <c r="AA29">
-        <v>1</v>
-      </c>
       <c r="AB29">
-        <v>6</v>
-      </c>
-      <c r="AC29">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>202</v>
       </c>
       <c r="AD29" t="s">
-        <v>240</v>
+        <v>47</v>
       </c>
       <c r="AE29" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="AF29" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="AG29" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="AH29" t="s">
-        <v>240</v>
+        <v>47</v>
       </c>
       <c r="AI29" t="s">
-        <v>49</v>
+        <v>166</v>
       </c>
       <c r="AJ29" t="s">
-        <v>197</v>
-      </c>
-      <c r="AK29" t="s">
-        <v>240</v>
-      </c>
-      <c r="AL29">
+        <v>202</v>
+      </c>
+      <c r="AK29">
         <v>3</v>
       </c>
+      <c r="AL29" t="s">
+        <v>202</v>
+      </c>
       <c r="AM29" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AN29" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AO29" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AP29" t="s">
-        <v>240</v>
-      </c>
-      <c r="AQ29" t="s">
-        <v>240</v>
-      </c>
-      <c r="AR29">
-        <v>1</v>
-      </c>
-      <c r="AS29" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+      <c r="AQ29">
+        <v>1</v>
+      </c>
+      <c r="AR29" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>73</v>
       </c>
       <c r="B30" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E30">
         <v>1855851683</v>
       </c>
       <c r="F30" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="G30" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="H30" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="I30">
         <v>58</v>
       </c>
       <c r="J30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K30">
+        <v>15</v>
+      </c>
+      <c r="L30">
+        <v>6</v>
+      </c>
+      <c r="M30" t="s">
         <v>44</v>
       </c>
-      <c r="K30" t="s">
-        <v>200</v>
-      </c>
-      <c r="L30">
-        <v>8</v>
-      </c>
-      <c r="M30">
-        <v>6</v>
-      </c>
       <c r="N30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O30" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="P30" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="Q30" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="R30" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="S30" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="T30" t="s">
-        <v>240</v>
+        <v>43</v>
       </c>
       <c r="U30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V30" t="s">
-        <v>47</v>
+        <v>169</v>
       </c>
       <c r="W30" t="s">
-        <v>201</v>
-      </c>
-      <c r="X30" t="s">
-        <v>240</v>
+        <v>202</v>
+      </c>
+      <c r="X30">
+        <v>1</v>
       </c>
       <c r="Y30">
         <v>1</v>
       </c>
-      <c r="Z30">
-        <v>1</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>240</v>
-      </c>
-      <c r="AB30">
+      <c r="Z30" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA30">
         <v>3</v>
       </c>
+      <c r="AB30" t="s">
+        <v>202</v>
+      </c>
       <c r="AC30" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AD30" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="AE30" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="AF30" t="s">
-        <v>240</v>
+        <v>47</v>
       </c>
       <c r="AG30" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
       <c r="AH30" t="s">
-        <v>202</v>
+        <v>47</v>
       </c>
       <c r="AI30" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ30" t="s">
-        <v>65</v>
-      </c>
-      <c r="AK30">
-        <v>1</v>
-      </c>
-      <c r="AL30" t="s">
-        <v>240</v>
-      </c>
-      <c r="AM30">
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="AJ30">
+        <v>1</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>202</v>
+      </c>
+      <c r="AL30">
+        <v>1</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>202</v>
       </c>
       <c r="AN30" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AO30" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AP30" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AQ30" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AR30" t="s">
-        <v>240</v>
-      </c>
-      <c r="AS30" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="31" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>74</v>
       </c>
       <c r="B31" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E31">
         <v>590313617</v>
       </c>
       <c r="F31" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="G31" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="H31" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="I31">
         <v>59</v>
       </c>
       <c r="J31" t="s">
+        <v>43</v>
+      </c>
+      <c r="K31">
+        <v>8</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31" t="s">
         <v>44</v>
       </c>
-      <c r="K31" t="s">
-        <v>205</v>
-      </c>
-      <c r="L31">
-        <v>15</v>
-      </c>
-      <c r="M31">
-        <v>1</v>
-      </c>
       <c r="N31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O31" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="P31" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="Q31" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="R31" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="S31" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="T31" t="s">
-        <v>240</v>
+        <v>43</v>
       </c>
       <c r="U31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V31" t="s">
-        <v>47</v>
-      </c>
-      <c r="W31" t="s">
-        <v>206</v>
-      </c>
-      <c r="X31">
-        <v>2</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>240</v>
-      </c>
-      <c r="Z31">
-        <v>2</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>240</v>
+        <v>173</v>
+      </c>
+      <c r="W31">
+        <v>2</v>
+      </c>
+      <c r="X31" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y31">
+        <v>2</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA31">
+        <v>1</v>
       </c>
       <c r="AB31">
         <v>1</v>
       </c>
-      <c r="AC31">
-        <v>1</v>
+      <c r="AC31" t="s">
+        <v>202</v>
       </c>
       <c r="AD31" t="s">
-        <v>240</v>
+        <v>47</v>
       </c>
       <c r="AE31" t="s">
-        <v>49</v>
+        <v>174</v>
       </c>
       <c r="AF31" t="s">
-        <v>207</v>
+        <v>45</v>
       </c>
       <c r="AG31" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="AH31" t="s">
-        <v>240</v>
+        <v>47</v>
       </c>
       <c r="AI31" t="s">
         <v>49</v>
       </c>
       <c r="AJ31" t="s">
-        <v>51</v>
+        <v>202</v>
       </c>
       <c r="AK31" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AL31" t="s">
-        <v>240</v>
-      </c>
-      <c r="AM31" t="s">
-        <v>240</v>
-      </c>
-      <c r="AN31">
-        <v>2</v>
+        <v>202</v>
+      </c>
+      <c r="AM31">
+        <v>2</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>202</v>
       </c>
       <c r="AO31" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AP31" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AQ31" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AR31" t="s">
-        <v>240</v>
-      </c>
-      <c r="AS31" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="32" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>75</v>
       </c>
       <c r="B32" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="C32">
         <v>-1</v>
       </c>
       <c r="D32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E32">
         <v>1652846592</v>
       </c>
       <c r="F32" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="G32" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="H32" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="I32">
         <v>60</v>
       </c>
       <c r="J32" t="s">
-        <v>62</v>
-      </c>
-      <c r="K32" t="s">
-        <v>211</v>
+        <v>60</v>
+      </c>
+      <c r="K32">
+        <v>15</v>
       </c>
       <c r="L32" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="M32" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="N32" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="O32" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="P32" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="Q32" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="R32" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="S32" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="T32" t="s">
-        <v>240</v>
+        <v>69</v>
       </c>
       <c r="U32" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="V32" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="W32" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="X32" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="Y32" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="Z32" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AA32" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AB32" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AC32" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AD32" t="s">
-        <v>240</v>
+        <v>69</v>
       </c>
       <c r="AE32" t="s">
-        <v>73</v>
+        <v>202</v>
       </c>
       <c r="AF32" t="s">
-        <v>240</v>
+        <v>69</v>
       </c>
       <c r="AG32" t="s">
-        <v>73</v>
+        <v>202</v>
       </c>
       <c r="AH32" t="s">
-        <v>240</v>
+        <v>69</v>
       </c>
       <c r="AI32" t="s">
-        <v>73</v>
+        <v>202</v>
       </c>
       <c r="AJ32" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AK32" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AL32" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AM32" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AN32" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AO32" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AP32" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AQ32" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AR32" t="s">
-        <v>240</v>
-      </c>
-      <c r="AS32" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="33" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>76</v>
       </c>
       <c r="B33" t="s">
-        <v>212</v>
+        <v>178</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E33">
         <v>702361043</v>
       </c>
       <c r="F33" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="G33" t="s">
-        <v>212</v>
+        <v>178</v>
       </c>
       <c r="H33" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="I33">
         <v>61</v>
       </c>
       <c r="J33" t="s">
+        <v>43</v>
+      </c>
+      <c r="K33">
+        <v>60</v>
+      </c>
+      <c r="L33">
+        <v>5</v>
+      </c>
+      <c r="M33" t="s">
         <v>44</v>
       </c>
-      <c r="K33" t="s">
-        <v>214</v>
-      </c>
-      <c r="L33">
-        <v>60</v>
-      </c>
-      <c r="M33">
-        <v>5</v>
-      </c>
       <c r="N33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O33" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="P33" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="Q33" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="R33" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="S33" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="T33" t="s">
-        <v>240</v>
+        <v>43</v>
       </c>
       <c r="U33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V33" t="s">
-        <v>47</v>
+        <v>180</v>
       </c>
       <c r="W33" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="X33" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="Y33" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="Z33" t="s">
-        <v>240</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>240</v>
-      </c>
-      <c r="AB33">
+        <v>202</v>
+      </c>
+      <c r="AA33">
         <v>3</v>
       </c>
+      <c r="AB33" t="s">
+        <v>202</v>
+      </c>
       <c r="AC33" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AD33" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="AE33" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="AF33" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="AG33" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="AH33" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="AI33" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="AJ33" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AK33" t="s">
-        <v>240</v>
-      </c>
-      <c r="AL33" t="s">
-        <v>240</v>
-      </c>
-      <c r="AM33">
-        <v>1</v>
-      </c>
-      <c r="AN33" t="s">
-        <v>240</v>
-      </c>
-      <c r="AO33">
-        <v>1</v>
+        <v>202</v>
+      </c>
+      <c r="AL33">
+        <v>1</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>202</v>
+      </c>
+      <c r="AN33">
+        <v>1</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>202</v>
       </c>
       <c r="AP33" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AQ33" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AR33" t="s">
-        <v>240</v>
-      </c>
-      <c r="AS33" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="34" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>77</v>
       </c>
       <c r="B34" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E34">
         <v>1219522567</v>
       </c>
       <c r="F34" t="s">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="G34" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="H34" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="I34">
         <v>62</v>
       </c>
       <c r="J34" t="s">
-        <v>62</v>
-      </c>
-      <c r="K34" t="s">
-        <v>218</v>
+        <v>60</v>
+      </c>
+      <c r="K34">
+        <v>36</v>
       </c>
       <c r="L34">
-        <v>36</v>
-      </c>
-      <c r="M34">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="M34" t="s">
+        <v>65</v>
       </c>
       <c r="N34" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="O34" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="P34" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="Q34" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="R34" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="S34" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="T34" t="s">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="U34" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="V34" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="W34" t="s">
+        <v>202</v>
+      </c>
+      <c r="X34">
+        <v>1</v>
+      </c>
+      <c r="Y34">
+        <v>4</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB34">
+        <v>1</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>202</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG34" t="s">
         <v>56</v>
       </c>
-      <c r="X34" t="s">
-        <v>240</v>
-      </c>
-      <c r="Y34">
-        <v>1</v>
-      </c>
-      <c r="Z34">
-        <v>4</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>240</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>240</v>
-      </c>
-      <c r="AC34">
-        <v>1</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>240</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>240</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>49</v>
-      </c>
       <c r="AH34" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="AI34" t="s">
-        <v>49</v>
+        <v>183</v>
       </c>
       <c r="AJ34" t="s">
-        <v>219</v>
-      </c>
-      <c r="AK34" t="s">
-        <v>240</v>
-      </c>
-      <c r="AL34">
-        <v>1</v>
+        <v>202</v>
+      </c>
+      <c r="AK34">
+        <v>1</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>202</v>
       </c>
       <c r="AM34" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AN34" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AO34" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AP34" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AQ34" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AR34" t="s">
-        <v>240</v>
-      </c>
-      <c r="AS34" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="35" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>78</v>
       </c>
       <c r="B35" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E35">
         <v>1063258544</v>
       </c>
       <c r="F35" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="G35" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="H35" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="I35">
         <v>63</v>
       </c>
       <c r="J35" t="s">
-        <v>62</v>
-      </c>
-      <c r="K35" t="s">
-        <v>222</v>
+        <v>60</v>
+      </c>
+      <c r="K35">
+        <v>36</v>
       </c>
       <c r="L35">
-        <v>36</v>
-      </c>
-      <c r="M35">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="M35" t="s">
+        <v>44</v>
       </c>
       <c r="N35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O35" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="P35" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="Q35" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="R35" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="S35" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="T35" t="s">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="U35" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="V35" t="s">
-        <v>47</v>
-      </c>
-      <c r="W35" t="s">
-        <v>196</v>
-      </c>
-      <c r="X35">
-        <v>1</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>240</v>
-      </c>
-      <c r="Z35">
-        <v>2</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>240</v>
+        <v>165</v>
+      </c>
+      <c r="W35">
+        <v>1</v>
+      </c>
+      <c r="X35" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y35">
+        <v>2</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA35">
+        <v>1</v>
       </c>
       <c r="AB35">
         <v>1</v>
       </c>
-      <c r="AC35">
-        <v>1</v>
+      <c r="AC35" t="s">
+        <v>202</v>
       </c>
       <c r="AD35" t="s">
-        <v>240</v>
+        <v>47</v>
       </c>
       <c r="AE35" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="AF35" t="s">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="AG35" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="AH35" t="s">
-        <v>240</v>
+        <v>47</v>
       </c>
       <c r="AI35" t="s">
-        <v>49</v>
+        <v>186</v>
       </c>
       <c r="AJ35" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="AK35" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AL35" t="s">
-        <v>240</v>
-      </c>
-      <c r="AM35" t="s">
-        <v>240</v>
+        <v>202</v>
+      </c>
+      <c r="AM35">
+        <v>1</v>
       </c>
       <c r="AN35">
         <v>1</v>
       </c>
-      <c r="AO35">
-        <v>1</v>
+      <c r="AO35" t="s">
+        <v>202</v>
       </c>
       <c r="AP35" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AQ35" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AR35" t="s">
-        <v>240</v>
-      </c>
-      <c r="AS35" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="36" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>79</v>
       </c>
       <c r="B36" t="s">
-        <v>224</v>
+        <v>187</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E36">
         <v>190411464</v>
       </c>
       <c r="F36" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="G36" t="s">
-        <v>224</v>
+        <v>187</v>
       </c>
       <c r="H36" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="I36">
         <v>64</v>
       </c>
       <c r="J36" t="s">
-        <v>62</v>
-      </c>
-      <c r="K36" t="s">
-        <v>226</v>
+        <v>60</v>
+      </c>
+      <c r="K36">
+        <v>48</v>
       </c>
       <c r="L36">
-        <v>48</v>
-      </c>
-      <c r="M36">
         <v>6</v>
       </c>
+      <c r="M36" t="s">
+        <v>65</v>
+      </c>
       <c r="N36" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="O36" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="P36" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="Q36" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="R36" t="s">
-        <v>240</v>
+        <v>47</v>
       </c>
       <c r="S36" t="s">
-        <v>49</v>
+        <v>189</v>
       </c>
       <c r="T36" t="s">
-        <v>227</v>
+        <v>43</v>
       </c>
       <c r="U36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V36" t="s">
-        <v>47</v>
-      </c>
-      <c r="W36" t="s">
-        <v>228</v>
-      </c>
-      <c r="X36">
-        <v>2</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>240</v>
+        <v>190</v>
+      </c>
+      <c r="W36">
+        <v>2</v>
+      </c>
+      <c r="X36" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y36">
+        <v>2</v>
       </c>
       <c r="Z36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA36">
-        <v>1</v>
-      </c>
-      <c r="AB36">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>202</v>
       </c>
       <c r="AC36" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AD36" t="s">
-        <v>240</v>
+        <v>47</v>
       </c>
       <c r="AE36" t="s">
-        <v>49</v>
+        <v>191</v>
       </c>
       <c r="AF36" t="s">
-        <v>229</v>
+        <v>45</v>
       </c>
       <c r="AG36" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="AH36" t="s">
-        <v>240</v>
+        <v>47</v>
       </c>
       <c r="AI36" t="s">
-        <v>49</v>
+        <v>191</v>
       </c>
       <c r="AJ36" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="AK36" t="s">
-        <v>240</v>
-      </c>
-      <c r="AL36" t="s">
-        <v>240</v>
-      </c>
-      <c r="AM36">
-        <v>1</v>
-      </c>
-      <c r="AN36" t="s">
-        <v>240</v>
-      </c>
-      <c r="AO36">
-        <v>1</v>
+        <v>202</v>
+      </c>
+      <c r="AL36">
+        <v>1</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>202</v>
+      </c>
+      <c r="AN36">
+        <v>1</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>202</v>
       </c>
       <c r="AP36" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AQ36" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AR36" t="s">
-        <v>240</v>
-      </c>
-      <c r="AS36" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="37" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>80</v>
       </c>
       <c r="B37" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
       <c r="C37">
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E37">
         <v>830089108</v>
       </c>
       <c r="F37" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="G37" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
       <c r="H37" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="I37">
         <v>65</v>
       </c>
       <c r="J37" t="s">
-        <v>44</v>
-      </c>
-      <c r="K37" t="s">
-        <v>226</v>
+        <v>43</v>
+      </c>
+      <c r="K37">
+        <v>15</v>
       </c>
       <c r="L37">
-        <v>15</v>
-      </c>
-      <c r="M37">
         <v>6</v>
       </c>
+      <c r="M37" t="s">
+        <v>65</v>
+      </c>
       <c r="N37" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="O37" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="P37" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="Q37" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="R37" t="s">
-        <v>240</v>
+        <v>45</v>
       </c>
       <c r="S37" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="T37" t="s">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="U37" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="V37" t="s">
-        <v>49</v>
-      </c>
-      <c r="W37" t="s">
-        <v>232</v>
-      </c>
-      <c r="X37">
+        <v>194</v>
+      </c>
+      <c r="W37">
         <v>4</v>
       </c>
-      <c r="Y37" t="s">
-        <v>240</v>
+      <c r="X37" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y37">
+        <v>1</v>
       </c>
       <c r="Z37">
         <v>1</v>
       </c>
       <c r="AA37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB37">
-        <v>4</v>
-      </c>
-      <c r="AC37">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>202</v>
       </c>
       <c r="AD37" t="s">
-        <v>240</v>
+        <v>47</v>
       </c>
       <c r="AE37" t="s">
-        <v>49</v>
+        <v>195</v>
       </c>
       <c r="AF37" t="s">
-        <v>233</v>
+        <v>45</v>
       </c>
       <c r="AG37" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="AH37" t="s">
-        <v>240</v>
+        <v>47</v>
       </c>
       <c r="AI37" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AJ37" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK37" t="s">
-        <v>240</v>
-      </c>
-      <c r="AL37">
-        <v>2</v>
+        <v>202</v>
+      </c>
+      <c r="AK37">
+        <v>2</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>202</v>
       </c>
       <c r="AM37" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AN37" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AO37" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AP37" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AQ37" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AR37" t="s">
-        <v>240</v>
-      </c>
-      <c r="AS37" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -6214,7 +5989,7 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2">
         <v>72</v>
@@ -6225,7 +6000,7 @@
         <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3">
         <v>46</v>
@@ -6236,7 +6011,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C4">
         <v>63</v>
@@ -6247,7 +6022,7 @@
         <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5">
         <v>47</v>
@@ -6255,7 +6030,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -6263,7 +6038,7 @@
         <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7">
         <v>30</v>
@@ -6274,7 +6049,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C8">
         <v>51</v>
@@ -6285,7 +6060,7 @@
         <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9">
         <v>50</v>
@@ -6296,7 +6071,7 @@
         <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10">
         <v>46</v>
@@ -6307,7 +6082,7 @@
         <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C11">
         <v>23</v>
@@ -6318,7 +6093,7 @@
         <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12">
         <v>80</v>
@@ -6329,7 +6104,7 @@
         <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13">
         <v>52</v>
@@ -6340,7 +6115,7 @@
         <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C14">
         <v>80</v>
@@ -6351,7 +6126,7 @@
         <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C15">
         <v>68</v>
@@ -6362,7 +6137,7 @@
         <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16">
         <v>58</v>
@@ -6373,7 +6148,7 @@
         <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17">
         <v>21</v>
@@ -6384,7 +6159,7 @@
         <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18">
         <v>52</v>
@@ -6395,7 +6170,7 @@
         <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19">
         <v>50</v>
@@ -6406,7 +6181,7 @@
         <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20">
         <v>40</v>
@@ -6417,7 +6192,7 @@
         <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21">
         <v>36</v>
@@ -6428,7 +6203,7 @@
         <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C22">
         <v>54</v>
@@ -6439,7 +6214,7 @@
         <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23">
         <v>67</v>
@@ -6450,7 +6225,7 @@
         <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24">
         <v>54</v>
@@ -6461,7 +6236,7 @@
         <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C25">
         <v>58</v>
@@ -6472,7 +6247,7 @@
         <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26">
         <v>23</v>
@@ -6483,7 +6258,7 @@
         <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C27">
         <v>75</v>
@@ -6494,7 +6269,7 @@
         <v>56</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C28">
         <v>60</v>
@@ -6505,7 +6280,7 @@
         <v>57</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29">
         <v>47</v>
@@ -6516,7 +6291,7 @@
         <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C30">
         <v>56</v>
@@ -6527,7 +6302,7 @@
         <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31">
         <v>50</v>
@@ -6538,7 +6313,7 @@
         <v>60</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32">
         <v>49</v>
@@ -6546,7 +6321,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33">
         <v>66</v>
@@ -6557,7 +6332,7 @@
         <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34">
         <v>29</v>
@@ -6568,7 +6343,7 @@
         <v>63</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C35">
         <v>59</v>
@@ -6579,7 +6354,7 @@
         <v>64</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36">
         <v>54</v>
@@ -6590,7 +6365,7 @@
         <v>65</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C37">
         <v>44</v>
